--- a/project_info.xlsx
+++ b/project_info.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Koce\Subjects\IT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Koce\Subjects\IT\news\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3A62F71-1396-4BF8-9D98-8538CEC1367F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35CEDFFC-7EF4-4892-AF21-F4017DC934BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DB" sheetId="1" r:id="rId1"/>
@@ -156,9 +156,6 @@
     <t>Returns all comments</t>
   </si>
   <si>
-    <t>Returns all news and associated authors</t>
-  </si>
-  <si>
     <t>Returns all comments associated with specified {newsid}</t>
   </si>
   <si>
@@ -337,6 +334,9 @@
   </si>
   <si>
     <t>/private/delete/news/{newsid}</t>
+  </si>
+  <si>
+    <t>Returns all news</t>
   </si>
 </sst>
 </file>
@@ -488,14 +488,20 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -529,12 +535,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -829,11 +829,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
@@ -900,10 +900,10 @@
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F6" s="2" t="s">
         <v>48</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>49</v>
       </c>
       <c r="G6" s="5"/>
     </row>
@@ -922,7 +922,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
@@ -934,21 +934,21 @@
         <v>1</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
       <c r="D9" s="7"/>
       <c r="E9" s="6">
         <v>2</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
@@ -998,11 +998,11 @@
       <c r="C14" s="4"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A16" s="8" t="s">
+      <c r="A16" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="11"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
@@ -1125,11 +1125,11 @@
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A25" s="8" t="s">
+      <c r="A25" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="B25" s="8"/>
-      <c r="C25" s="8"/>
+      <c r="B25" s="11"/>
+      <c r="C25" s="11"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
@@ -1175,11 +1175,11 @@
       <c r="C30" s="5"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A32" s="8" t="s">
+      <c r="A32" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="B32" s="8"/>
-      <c r="C32" s="8"/>
+      <c r="B32" s="11"/>
+      <c r="C32" s="11"/>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
@@ -1276,8 +1276,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F22D3B8-D037-4AFF-BF85-FDEA58C0B61C}">
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9:E9"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3:E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1287,13 +1287,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" s="22" t="s">
-        <v>70</v>
-      </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
+      <c r="A1" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
     </row>
     <row r="2" spans="1:5" ht="37" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
@@ -1302,44 +1302,44 @@
       <c r="B2" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
     </row>
     <row r="3" spans="1:5" ht="37" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="23" t="s">
-        <v>44</v>
+      <c r="A3" s="8" t="s">
+        <v>43</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>42</v>
+        <v>90</v>
       </c>
       <c r="D3" s="10"/>
       <c r="E3" s="10"/>
     </row>
     <row r="4" spans="1:5" ht="37" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="23" t="s">
-        <v>44</v>
+      <c r="A4" s="8" t="s">
+        <v>43</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D4" s="10"/>
       <c r="E4" s="10"/>
     </row>
     <row r="5" spans="1:5" ht="37" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="23" t="s">
-        <v>44</v>
+      <c r="A5" s="8" t="s">
+        <v>43</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C5" s="10" t="s">
         <v>41</v>
@@ -1348,53 +1348,53 @@
       <c r="E5" s="10"/>
     </row>
     <row r="6" spans="1:5" ht="37" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="23" t="s">
-        <v>44</v>
+      <c r="A6" s="8" t="s">
+        <v>43</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D6" s="10"/>
       <c r="E6" s="10"/>
     </row>
     <row r="7" spans="1:5" ht="37" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="23" t="s">
-        <v>46</v>
+      <c r="A7" s="8" t="s">
+        <v>45</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D7" s="10"/>
       <c r="E7" s="10"/>
     </row>
     <row r="8" spans="1:5" ht="37" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="23" t="s">
+      <c r="A8" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C8" s="10" t="s">
         <v>46</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>47</v>
       </c>
       <c r="D8" s="10"/>
       <c r="E8" s="10"/>
     </row>
     <row r="9" spans="1:5" ht="26" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="23" t="s">
-        <v>46</v>
+      <c r="A9" s="8" t="s">
+        <v>45</v>
       </c>
       <c r="B9" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C9" s="10" t="s">
         <v>82</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>83</v>
       </c>
       <c r="D9" s="10"/>
       <c r="E9" s="10"/>
@@ -1419,7 +1419,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B10A9AE3-401C-48E2-82EF-8B21DC0259CB}">
   <dimension ref="A2:F12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
@@ -1433,14 +1433,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" s="22" t="s">
-        <v>76</v>
-      </c>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
+      <c r="A2" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
     </row>
     <row r="3" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
@@ -1449,172 +1449,172 @@
       <c r="B3" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
       <c r="F3" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A4" s="23" t="s">
-        <v>46</v>
+      <c r="A4" s="8" t="s">
+        <v>45</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D4" s="10"/>
       <c r="E4" s="10"/>
       <c r="F4" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A5" s="23" t="s">
-        <v>59</v>
+      <c r="A5" s="8" t="s">
+        <v>58</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D5" s="10"/>
       <c r="E5" s="10"/>
       <c r="F5" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A6" s="23" t="s">
-        <v>62</v>
+      <c r="A6" s="8" t="s">
+        <v>61</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D6" s="10"/>
       <c r="E6" s="10"/>
       <c r="F6" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A7" s="23" t="s">
-        <v>46</v>
+      <c r="A7" s="8" t="s">
+        <v>45</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D7" s="10"/>
       <c r="E7" s="10"/>
       <c r="F7" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A8" s="23" t="s">
-        <v>46</v>
+      <c r="A8" s="8" t="s">
+        <v>45</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D8" s="10"/>
       <c r="E8" s="10"/>
       <c r="F8" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A9" s="23" t="s">
-        <v>59</v>
+      <c r="A9" s="8" t="s">
+        <v>58</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D9" s="10"/>
       <c r="E9" s="10"/>
       <c r="F9" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A10" s="23" t="s">
+      <c r="A10" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C10" s="10" t="s">
         <v>59</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>60</v>
       </c>
       <c r="D10" s="10"/>
       <c r="E10" s="10"/>
       <c r="F10" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A11" s="23" t="s">
+      <c r="A11" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="D11" s="15"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A12" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C12" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="C11" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="D11" s="13"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A12" s="23" t="s">
-        <v>62</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="C12" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="D12" s="13"/>
-      <c r="E12" s="14"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="16"/>
       <c r="F12" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="C11:E11"/>
     <mergeCell ref="C12:E12"/>
     <mergeCell ref="C3:E3"/>
     <mergeCell ref="C6:E6"/>
     <mergeCell ref="C7:E7"/>
     <mergeCell ref="C8:E8"/>
     <mergeCell ref="C9:E9"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="C11:E11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1631,85 +1631,85 @@
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="3" spans="1:7" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="B3" s="22"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="23"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A4" s="18"/>
+      <c r="B4" s="19"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="20"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A5" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="B5" s="17"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A6" s="18"/>
+      <c r="B6" s="19"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="20"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A7" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="B3" s="20"/>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="21"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A4" s="16"/>
-      <c r="B4" s="17"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="18"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A5" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="B5" s="15"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="15"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A6" s="16"/>
-      <c r="B6" s="17"/>
-      <c r="C6" s="17"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="18"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A7" s="15" t="s">
+      <c r="B7" s="17"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="17"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A8" s="18"/>
+      <c r="B8" s="19"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="20"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A9" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="B7" s="15"/>
-      <c r="C7" s="15"/>
-      <c r="D7" s="15"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="15"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A8" s="16"/>
-      <c r="B8" s="17"/>
-      <c r="C8" s="17"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="18"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A9" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="B9" s="15"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="A3:G3"/>
     <mergeCell ref="A5:G5"/>
     <mergeCell ref="A7:G7"/>
     <mergeCell ref="A9:G9"/>
     <mergeCell ref="A4:G4"/>
     <mergeCell ref="A6:G6"/>
     <mergeCell ref="A8:G8"/>
-    <mergeCell ref="A3:G3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/project_info.xlsx
+++ b/project_info.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Koce\Subjects\IT\news\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35CEDFFC-7EF4-4892-AF21-F4017DC934BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{061F2C71-A33F-4192-B385-59163A203688}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DB" sheetId="1" r:id="rId1"/>
@@ -515,6 +515,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -525,15 +534,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1276,8 +1276,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F22D3B8-D037-4AFF-BF85-FDEA58C0B61C}">
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:E3"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1419,8 +1419,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B10A9AE3-401C-48E2-82EF-8B21DC0259CB}">
   <dimension ref="A2:F12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1604,17 +1604,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="C11:E11"/>
     <mergeCell ref="C12:E12"/>
     <mergeCell ref="C3:E3"/>
     <mergeCell ref="C6:E6"/>
     <mergeCell ref="C7:E7"/>
     <mergeCell ref="C8:E8"/>
     <mergeCell ref="C9:E9"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="C11:E11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1631,75 +1631,75 @@
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="3" spans="1:7" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="21" t="s">
+      <c r="A3" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="B3" s="22"/>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="23"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="19"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A4" s="18"/>
-      <c r="B4" s="19"/>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="20"/>
+      <c r="A4" s="21"/>
+      <c r="B4" s="22"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="23"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A5" s="17" t="s">
+      <c r="A5" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="B5" s="17"/>
-      <c r="C5" s="17"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17"/>
+      <c r="B5" s="20"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="20"/>
+      <c r="G5" s="20"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A6" s="18"/>
-      <c r="B6" s="19"/>
-      <c r="C6" s="19"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="20"/>
+      <c r="A6" s="21"/>
+      <c r="B6" s="22"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="23"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A7" s="17" t="s">
+      <c r="A7" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="B7" s="17"/>
-      <c r="C7" s="17"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17"/>
+      <c r="B7" s="20"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="20"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A8" s="18"/>
-      <c r="B8" s="19"/>
-      <c r="C8" s="19"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="20"/>
+      <c r="A8" s="21"/>
+      <c r="B8" s="22"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="23"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A9" s="17" t="s">
+      <c r="A9" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="B9" s="17"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="17"/>
+      <c r="B9" s="20"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="7">

--- a/project_info.xlsx
+++ b/project_info.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Koce\Subjects\IT\news\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{061F2C71-A33F-4192-B385-59163A203688}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44E80AB8-CBFC-40BC-88D6-77E6A4673C42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -300,9 +300,6 @@
     <t>/private/insert/comment/news/{newsid}</t>
   </si>
   <si>
-    <t>/private/insert/category/{categoryId}/news</t>
-  </si>
-  <si>
     <t>/private/delete/comment/{commentId}</t>
   </si>
   <si>
@@ -337,6 +334,9 @@
   </si>
   <si>
     <t>Returns all news</t>
+  </si>
+  <si>
+    <t>/private/insert/category/news/{categoryId}</t>
   </si>
 </sst>
 </file>
@@ -1316,7 +1316,7 @@
         <v>70</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D3" s="10"/>
       <c r="E3" s="10"/>
@@ -1378,7 +1378,7 @@
         <v>45</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C8" s="10" t="s">
         <v>46</v>
@@ -1391,10 +1391,10 @@
         <v>45</v>
       </c>
       <c r="B9" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C9" s="10" t="s">
         <v>81</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>82</v>
       </c>
       <c r="D9" s="10"/>
       <c r="E9" s="10"/>
@@ -1420,7 +1420,7 @@
   <dimension ref="A2:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1479,10 +1479,10 @@
         <v>58</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D5" s="10"/>
       <c r="E5" s="10"/>
@@ -1495,10 +1495,10 @@
         <v>61</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D6" s="10"/>
       <c r="E6" s="10"/>
@@ -1527,7 +1527,7 @@
         <v>45</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="C8" s="10" t="s">
         <v>56</v>
@@ -1543,7 +1543,7 @@
         <v>58</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C9" s="10" t="s">
         <v>63</v>
@@ -1559,7 +1559,7 @@
         <v>58</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C10" s="10" t="s">
         <v>59</v>
@@ -1575,7 +1575,7 @@
         <v>61</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C11" s="14" t="s">
         <v>60</v>
@@ -1591,7 +1591,7 @@
         <v>61</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C12" s="14" t="s">
         <v>62</v>
@@ -1604,17 +1604,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="C11:E11"/>
     <mergeCell ref="C12:E12"/>
     <mergeCell ref="C3:E3"/>
     <mergeCell ref="C6:E6"/>
     <mergeCell ref="C7:E7"/>
     <mergeCell ref="C8:E8"/>
     <mergeCell ref="C9:E9"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="C11:E11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
